--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf21-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf21-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +546,10 @@
         <v>0.6092569999999999</v>
       </c>
       <c r="I2">
-        <v>0.6495602658128925</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="J2">
-        <v>0.6495602658128925</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8372556666666666</v>
+        <v>0.903185</v>
       </c>
       <c r="N2">
-        <v>2.511767</v>
+        <v>2.709555</v>
       </c>
       <c r="O2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q2">
-        <v>0.1700346252354444</v>
+        <v>0.1834239278483333</v>
       </c>
       <c r="R2">
-        <v>1.530311627119</v>
+        <v>1.650815350635</v>
       </c>
       <c r="S2">
-        <v>0.0280806056713866</v>
+        <v>0.01114245087211973</v>
       </c>
       <c r="T2">
-        <v>0.0280806056713866</v>
+        <v>0.01114245087211972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +608,10 @@
         <v>0.6092569999999999</v>
       </c>
       <c r="I3">
-        <v>0.6495602658128925</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="J3">
-        <v>0.6495602658128925</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,10 +626,10 @@
         <v>0.331116</v>
       </c>
       <c r="O3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q3">
         <v>0.02241497120133333</v>
@@ -635,10 +638,10 @@
         <v>0.201734740812</v>
       </c>
       <c r="S3">
-        <v>0.003701751725970938</v>
+        <v>0.001361641953373448</v>
       </c>
       <c r="T3">
-        <v>0.003701751725970938</v>
+        <v>0.001361641953373448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,40 +670,40 @@
         <v>0.6092569999999999</v>
       </c>
       <c r="I4">
-        <v>0.6495602658128925</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="J4">
-        <v>0.6495602658128925</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>18.40564566666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N4">
-        <v>55.216937</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O4">
-        <v>0.9503421275147966</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P4">
-        <v>0.9503421275147965</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q4">
-        <v>3.737922820645444</v>
+        <v>0.006247388973222221</v>
       </c>
       <c r="R4">
-        <v>33.641305385809</v>
+        <v>0.05622650075899999</v>
       </c>
       <c r="S4">
-        <v>0.6173044849617011</v>
+        <v>0.0003795100537303405</v>
       </c>
       <c r="T4">
-        <v>0.617304484961701</v>
+        <v>0.0003795100537303405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,45 +732,45 @@
         <v>0.6092569999999999</v>
       </c>
       <c r="I5">
-        <v>0.6495602658128925</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="J5">
-        <v>0.6495602658128925</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.01411566666666667</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N5">
-        <v>0.042347</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q5">
-        <v>0.002866689575444444</v>
+        <v>5.590760819872555</v>
       </c>
       <c r="R5">
-        <v>0.025800206179</v>
+        <v>50.316847378853</v>
       </c>
       <c r="S5">
-        <v>0.0004734234538339777</v>
+        <v>0.3396218721513317</v>
       </c>
       <c r="T5">
-        <v>0.0004734234538339777</v>
+        <v>0.3396218721513316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1095653333333333</v>
+        <v>0.2030856666666666</v>
       </c>
       <c r="H6">
-        <v>0.328696</v>
+        <v>0.6092569999999999</v>
       </c>
       <c r="I6">
-        <v>0.3504397341871075</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="J6">
-        <v>0.3504397341871075</v>
+        <v>0.3531826360773729</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8372556666666666</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N6">
-        <v>2.511767</v>
+        <v>0.164668</v>
       </c>
       <c r="O6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q6">
-        <v>0.09173419620355555</v>
+        <v>0.01114723685288889</v>
       </c>
       <c r="R6">
-        <v>0.8256077658319999</v>
+        <v>0.100325131676</v>
       </c>
       <c r="S6">
-        <v>0.01514957195692802</v>
+        <v>0.0006771610468177286</v>
       </c>
       <c r="T6">
-        <v>0.01514957195692802</v>
+        <v>0.0006771610468177286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,46 +850,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1095653333333333</v>
+        <v>0.3719303333333333</v>
       </c>
       <c r="H7">
-        <v>0.328696</v>
+        <v>1.115791</v>
       </c>
       <c r="I7">
-        <v>0.3504397341871075</v>
+        <v>0.6468173639226271</v>
       </c>
       <c r="J7">
-        <v>0.3504397341871075</v>
+        <v>0.6468173639226271</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.110372</v>
+        <v>0.903185</v>
       </c>
       <c r="N7">
-        <v>0.331116</v>
+        <v>2.709555</v>
       </c>
       <c r="O7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q7">
-        <v>0.01209294497066666</v>
+        <v>0.3359218981116667</v>
       </c>
       <c r="R7">
-        <v>0.108836504736</v>
+        <v>3.023297083005</v>
       </c>
       <c r="S7">
-        <v>0.001997106287362712</v>
+        <v>0.02040624301576074</v>
       </c>
       <c r="T7">
-        <v>0.001997106287362712</v>
+        <v>0.02040624301576074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,46 +912,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1095653333333333</v>
+        <v>0.3719303333333333</v>
       </c>
       <c r="H8">
-        <v>0.328696</v>
+        <v>1.115791</v>
       </c>
       <c r="I8">
-        <v>0.3504397341871075</v>
+        <v>0.6468173639226271</v>
       </c>
       <c r="J8">
-        <v>0.3504397341871075</v>
+        <v>0.6468173639226271</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>18.40564566666667</v>
+        <v>0.110372</v>
       </c>
       <c r="N8">
-        <v>55.216937</v>
+        <v>0.331116</v>
       </c>
       <c r="O8">
-        <v>0.9503421275147966</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P8">
-        <v>0.9503421275147965</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q8">
-        <v>2.016620702683556</v>
+        <v>0.04105069475066666</v>
       </c>
       <c r="R8">
-        <v>18.149586324152</v>
+        <v>0.369456252756</v>
       </c>
       <c r="S8">
-        <v>0.3330376425530955</v>
+        <v>0.002493706000581878</v>
       </c>
       <c r="T8">
-        <v>0.3330376425530955</v>
+        <v>0.002493706000581878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1095653333333333</v>
+        <v>0.3719303333333333</v>
       </c>
       <c r="H9">
-        <v>0.328696</v>
+        <v>1.115791</v>
       </c>
       <c r="I9">
-        <v>0.3504397341871075</v>
+        <v>0.6468173639226271</v>
       </c>
       <c r="J9">
-        <v>0.3504397341871075</v>
+        <v>0.6468173639226271</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +992,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01411566666666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N9">
-        <v>0.042347</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q9">
-        <v>0.001546587723555556</v>
+        <v>0.01144144489077778</v>
       </c>
       <c r="R9">
-        <v>0.013919289512</v>
+        <v>0.102973004017</v>
       </c>
       <c r="S9">
-        <v>0.0002554133897212723</v>
+        <v>0.0006950332985289139</v>
       </c>
       <c r="T9">
-        <v>0.0002554133897212723</v>
+        <v>0.0006950332985289139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3719303333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.115791</v>
+      </c>
+      <c r="I10">
+        <v>0.6468173639226271</v>
+      </c>
+      <c r="J10">
+        <v>0.6468173639226271</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N10">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O10">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P10">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q10">
+        <v>10.23889853701544</v>
+      </c>
+      <c r="R10">
+        <v>92.15008683313901</v>
+      </c>
+      <c r="S10">
+        <v>0.6219822313893916</v>
+      </c>
+      <c r="T10">
+        <v>0.6219822313893916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3719303333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.115791</v>
+      </c>
+      <c r="I11">
+        <v>0.6468173639226271</v>
+      </c>
+      <c r="J11">
+        <v>0.6468173639226271</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.164668</v>
+      </c>
+      <c r="O11">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P11">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q11">
+        <v>0.02041500804311111</v>
+      </c>
+      <c r="R11">
+        <v>0.183735072388</v>
+      </c>
+      <c r="S11">
+        <v>0.001240150218364008</v>
+      </c>
+      <c r="T11">
+        <v>0.001240150218364008</v>
       </c>
     </row>
   </sheetData>
